--- a/02.sum-of-range/resource/compare calc sum-of-range.xlsx
+++ b/02.sum-of-range/resource/compare calc sum-of-range.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AeroCode\Desktop\MyProject\node-napi-tutorial\02.sum-of-range\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827DA0B7-A664-4E42-91C9-12594C2F1DB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF48C1-AC1F-4D52-A031-E5885304D428}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{495E4641-9371-49E1-9625-91E4161970A5}"/>
   </bookViews>
@@ -611,7 +611,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.46119529390848224"/>
-                      <c:h val="6.8894564004813974E-2"/>
+                      <c:h val="5.9093599245215477E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -671,7 +671,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.40253808275582409"/>
-                      <c:h val="6.390942912747577E-2"/>
+                      <c:h val="5.1118754542757244E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -731,7 +731,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.33913593680978504"/>
-                      <c:h val="6.390942912747577E-2"/>
+                      <c:h val="6.7068443947673723E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -791,7 +791,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.27843349514273852"/>
-                      <c:h val="6.8894564004813974E-2"/>
+                      <c:h val="5.5106176893986364E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -851,7 +851,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.20685042713914606"/>
-                      <c:h val="6.390942912747577E-2"/>
+                      <c:h val="5.1118754542757244E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -911,7 +911,7 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.15432890752965303"/>
-                      <c:h val="6.8894564004813974E-2"/>
+                      <c:h val="5.5106176893986364E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -2442,13 +2442,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>3661</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2196</xdr:rowOff>
+      <xdr:rowOff>2195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>14653</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>212479</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2477,14 +2477,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2932</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>207350</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>207349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209548</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2812,7 +2812,7 @@
   <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3077,18 +3077,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3110,6 +3110,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCEE90F-47AC-44EC-AE83-3091D9608E0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ECB2419-4549-41F4-A2F0-D5D48E12DC82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3123,12 +3131,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCEE90F-47AC-44EC-AE83-3091D9608E0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>